--- a/数据整理/stocks/A股/深证主板/000682-东方电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/000682-东方电子.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +671,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -690,13 +711,179 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>107.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5064</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>3.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000682-东方电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/000682-东方电子.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,37 +463,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -503,36 +483,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011056</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时汇兴回报一年持有期灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>145.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.27</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.2305</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.59</v>
       </c>
     </row>
     <row r="3">
@@ -541,112 +499,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011927</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>82.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2016</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004448</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时汇智回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>56.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1679</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011928</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.69</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.61</v>
       </c>
     </row>
   </sheetData>
@@ -830,7 +690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,17 +701,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -861,14 +741,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.59</v>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>145.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2305</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -877,14 +779,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.61</v>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>56.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000682-东方电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/000682-东方电子.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>2.59</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>3.61</v>
       </c>
     </row>
@@ -515,6 +532,822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>111.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8805</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>106.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6071</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>52.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4110</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013797</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2717</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3511</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2123</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时周期优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015031</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015030</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013798</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014913</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时研究回报混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014914</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时研究回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时周期优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -684,7 +1517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000682-东方电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/000682-东方电子.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>12.07</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>2.59</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>3.61</v>
       </c>
     </row>
@@ -532,6 +549,898 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>111.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9948</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>108.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7933</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6727</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013797</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1740</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5706</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3303</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1682</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时周期优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015031</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015030</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014913</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时研究回报混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013798</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014914</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时研究回报混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时周期优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1347,7 +2256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1517,7 +2426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
